--- a/DMH_VCO_40106_PCB/DMH_VCO_40106_PCB_BoM.xlsx
+++ b/DMH_VCO_40106_PCB/DMH_VCO_40106_PCB_BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Engineering\GitHub\DMH-VCO-40106\DMH_VCO_40106_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49970E7-ACF9-4904-9C9A-1DFBFE83899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C0E05-7D95-4045-9509-50D7B52F940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AC7F658B-DAB4-41AF-A50D-00B852EEFF13}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Reference</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>10K</t>
+  </si>
+  <si>
+    <t>sockets</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12074EA-CBA9-448E-86E2-29B3069C31A2}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,6 +1737,11 @@
         <v>7905</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DMH_VCO_40106_PCB/DMH_VCO_40106_PCB_BoM.xlsx
+++ b/DMH_VCO_40106_PCB/DMH_VCO_40106_PCB_BoM.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Engineering\GitHub\DMH-VCO-40106\DMH_VCO_40106_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-VCO-40106\DMH_VCO_40106_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C0E05-7D95-4045-9509-50D7B52F940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70350C-833E-4DFF-99B6-4AE159B96202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AC7F658B-DAB4-41AF-A50D-00B852EEFF13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC7F658B-DAB4-41AF-A50D-00B852EEFF13}"/>
   </bookViews>
   <sheets>
     <sheet name="DMH_VCO_40106_PCB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DMH_VCO_40106_PCB!$A$1:$D$46</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -862,9 +865,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -902,7 +905,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1008,7 +1011,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1150,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1158,19 +1161,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12074EA-CBA9-448E-86E2-29B3069C31A2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -1700,12 +1704,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>7805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -1737,12 +1741,34 @@
         <v>7905</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D46" xr:uid="{E12074EA-CBA9-448E-86E2-29B3069C31A2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="R1,R3,R4,R6,R7,R8,R9,R12,R13,R17,R18,R25,R26,R27,RV1,RV2,RV6,RV9"/>
+        <filter val="R10"/>
+        <filter val="R14,R19"/>
+        <filter val="R15"/>
+        <filter val="R16"/>
+        <filter val="R2"/>
+        <filter val="R20,R21,R24,R28,RV5"/>
+        <filter val="R22,R23,R33,R34,R35,R36,RV8,TH1,TH2,TH3,TH4,TH5,TH6"/>
+        <filter val="R29,R32"/>
+        <filter val="R30"/>
+        <filter val="R31"/>
+        <filter val="R5,R11,RV3,RV4"/>
+        <filter val="regulator"/>
+        <filter val="RV10"/>
+        <filter val="RV7"/>
+        <filter val="thermistors"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>